--- a/Doc/Excel/Story.xlsx
+++ b/Doc/Excel/Story.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>ID</t>
   </si>
@@ -127,12 +127,18 @@
     <t>Args8</t>
   </si>
   <si>
+    <t>InitOpen</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>MakeIndex:true</t>
   </si>
   <si>
@@ -167,6 +173,9 @@
   </si>
   <si>
     <t>参数8</t>
+  </si>
+  <si>
+    <t>开场启动</t>
   </si>
   <si>
     <t>开场</t>
@@ -229,11 +238,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,7 +272,67 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +352,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -291,121 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,187 +428,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,23 +640,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,31 +700,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,152 +739,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,9 +895,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1220,21 +1219,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="20.125" style="2" customWidth="1"/>
-    <col min="4" max="11" width="15" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="4" max="12" width="15" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1268,116 +1267,141 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>10000001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="A6" s="2">
+        <v>10000002</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>10000003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <v>222222</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1407,53 +1431,53 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Excel/Story.xlsx
+++ b/Doc/Excel/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -237,8 +237,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -270,9 +270,109 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,122 +392,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,19 +428,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,163 +596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,24 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -666,41 +648,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +681,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,145 +742,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
@@ -1367,11 +1367,14 @@
       <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E5" s="2">
+        <v>10020001</v>
+      </c>
       <c r="L5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:4">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="2">
         <v>10000002</v>
       </c>
@@ -1384,8 +1387,11 @@
       <c r="D6" s="2">
         <v>111111</v>
       </c>
+      <c r="E6" s="2">
+        <v>10020001</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>10000003</v>
       </c>
@@ -1397,6 +1403,9 @@
       </c>
       <c r="D7" s="2">
         <v>222222</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10020001</v>
       </c>
     </row>
     <row r="8" spans="2:3">

--- a/Doc/Excel/Story.xlsx
+++ b/Doc/Excel/Story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>ID</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>你好</t>
+  </si>
+  <si>
+    <t>进入地图</t>
   </si>
   <si>
     <t>TableName: "Story" Package: "table"</t>
@@ -238,9 +241,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -269,6 +272,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -277,20 +288,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -299,54 +362,47 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,59 +415,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -428,37 +431,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,37 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,103 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,17 +640,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,7 +685,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,27 +733,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,13 +1222,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="20.125" style="2" customWidth="1"/>
@@ -1391,7 +1394,7 @@
         <v>10020001</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" s="2" customFormat="1" spans="1:4">
       <c r="A7" s="2">
         <v>10000003</v>
       </c>
@@ -1399,18 +1402,32 @@
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10030002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>10000004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>222222</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>10020001</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+    <row r="9" spans="2:3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1440,53 +1457,53 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
